--- a/写真ファイル名変換フローチャート.xlsx
+++ b/写真ファイル名変換フローチャート.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="11895"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="11895" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="フローチャート図" sheetId="1" r:id="rId1"/>
     <sheet name="各ファイルの詳細プロパティ一覧" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="BitmapのExifプロパティ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="160">
   <si>
     <t>YES</t>
     <phoneticPr fontId="2"/>
@@ -402,12 +402,205 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>10F</t>
+  </si>
+  <si>
+    <t>iPhone</t>
+  </si>
+  <si>
+    <t>5s</t>
+  </si>
+  <si>
+    <t>11A</t>
+  </si>
+  <si>
+    <t>11B</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Viewer</t>
+  </si>
+  <si>
+    <t>6.1.7600.16385</t>
+  </si>
+  <si>
+    <t>829A</t>
+  </si>
+  <si>
+    <t>829D</t>
+  </si>
+  <si>
+    <t>920A</t>
+  </si>
+  <si>
+    <t>927C</t>
+  </si>
+  <si>
+    <t>A000</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>A217</t>
+  </si>
+  <si>
+    <t>A301</t>
+  </si>
+  <si>
+    <t>A402</t>
+  </si>
+  <si>
+    <t>A403</t>
+  </si>
+  <si>
+    <t>A405</t>
+  </si>
+  <si>
+    <t>A406</t>
+  </si>
+  <si>
+    <t>A432</t>
+  </si>
+  <si>
+    <t>A433</t>
+  </si>
+  <si>
+    <t>A434</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>4.15mm</t>
+  </si>
+  <si>
+    <t>501B</t>
+  </si>
+  <si>
+    <t>502D</t>
+  </si>
+  <si>
+    <t>502E</t>
+  </si>
+  <si>
+    <t>C:\Users\Naoto\Desktop\2015-12-23\20160425_0000.JPG</t>
+  </si>
+  <si>
+    <r>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（１６進数）</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>シンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、length</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>create Time Original</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　（撮影日時）</t>
+    </r>
+    <rPh sb="22" eb="26">
+      <t>サツエイニチジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PropertyItem.Typeプロパティの値</t>
+  </si>
+  <si>
+    <t>データの型</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>ASCII 形式でエンコードされた Byte オブジェクトの配列</t>
+  </si>
+  <si>
+    <t>16 ビット整数</t>
+  </si>
+  <si>
+    <t>32 ビット整数</t>
+  </si>
+  <si>
+    <t>有理数を表す 2 つの Byte オブジェクトの配列</t>
+  </si>
+  <si>
+    <t>未使用</t>
+  </si>
+  <si>
+    <t>未定義</t>
+  </si>
+  <si>
+    <t>SLong</t>
+  </si>
+  <si>
+    <t>SRational</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -437,8 +630,28 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,13 +664,40 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -466,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -487,6 +727,21 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2285,18 +2540,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M19:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="14.25" customHeight="1"/>
   <sheetData>
-    <row r="19" spans="13:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="13:13" ht="14.25" customHeight="1">
       <c r="M19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="13:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="13:13" ht="14.25" customHeight="1">
       <c r="M40" t="s">
         <v>0</v>
       </c>
@@ -2321,7 +2576,7 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -2336,7 +2591,7 @@
     <col min="11" max="11" width="105" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>100</v>
       </c>
@@ -2347,7 +2602,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="4" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2376,7 +2631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2405,7 +2660,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2434,7 +2689,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2463,7 +2718,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2492,7 +2747,7 @@
         <v>41962.011805555558</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -2521,7 +2776,7 @@
         <v>41962.011805555558</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2550,7 +2805,7 @@
         <v>41962.011805555558</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2579,7 +2834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2608,7 +2863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2637,7 +2892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2666,7 +2921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2695,7 +2950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -2724,7 +2979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>19</v>
       </c>
@@ -2753,7 +3008,7 @@
         <v>1.1099537037037038E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>30</v>
       </c>
@@ -2782,7 +3037,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>31</v>
       </c>
@@ -2811,7 +3066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>32</v>
       </c>
@@ -2840,7 +3095,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>35</v>
       </c>
@@ -2869,7 +3124,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>50</v>
       </c>
@@ -2898,7 +3153,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>54</v>
       </c>
@@ -2927,7 +3182,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>157</v>
       </c>
@@ -2956,7 +3211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>158</v>
       </c>
@@ -2985,7 +3240,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>162</v>
       </c>
@@ -3014,7 +3269,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>167</v>
       </c>
@@ -3043,7 +3298,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>168</v>
       </c>
@@ -3072,7 +3327,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>169</v>
       </c>
@@ -3101,7 +3356,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>170</v>
       </c>
@@ -3130,7 +3385,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>171</v>
       </c>
@@ -3159,7 +3414,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>180</v>
       </c>
@@ -3179,7 +3434,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>183</v>
       </c>
@@ -3190,7 +3445,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>184</v>
       </c>
@@ -3201,7 +3456,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>185</v>
       </c>
@@ -3212,7 +3467,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>187</v>
       </c>
@@ -3223,7 +3478,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>189</v>
       </c>
@@ -3234,7 +3489,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>195</v>
       </c>
@@ -3245,7 +3500,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>246</v>
       </c>
@@ -3256,7 +3511,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>247</v>
       </c>
@@ -3267,7 +3522,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>249</v>
       </c>
@@ -3278,7 +3533,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>250</v>
       </c>
@@ -3289,7 +3544,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>251</v>
       </c>
@@ -3300,7 +3555,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>252</v>
       </c>
@@ -3311,7 +3566,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>253</v>
       </c>
@@ -3322,7 +3577,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>254</v>
       </c>
@@ -3333,7 +3588,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>255</v>
       </c>
@@ -3344,7 +3599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>256</v>
       </c>
@@ -3355,7 +3610,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>261</v>
       </c>
@@ -3366,7 +3621,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>262</v>
       </c>
@@ -3377,7 +3632,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>264</v>
       </c>
@@ -3396,12 +3651,701 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="24">
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24">
+      <c r="B5">
+        <v>110</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="11">
+        <v>2</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6">
+        <v>112</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="11">
+        <v>3</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="J7" s="11">
+        <v>4</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24">
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="J8" s="11">
+        <v>5</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9">
+        <v>128</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>6</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10">
+        <v>131</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" s="11">
+        <v>7</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11">
+        <v>132</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>84.000821759259267</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.87174768518518519</v>
+      </c>
+      <c r="J11" s="11">
+        <v>8</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12">
+        <v>213</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="J12" s="11">
+        <v>9</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="J13" s="11">
+        <v>10</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15">
+        <v>8822</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16">
+        <v>8827</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17">
+        <v>9000</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="5">
+        <v>9003</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>83.966932870370371</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.90141203703703709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19">
+        <v>9004</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>83.966932870370371</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.90141203703703709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20">
+        <v>9101</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21">
+        <v>9201</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22">
+        <v>9202</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23">
+        <v>9203</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24">
+        <v>9204</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25">
+        <v>9207</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26">
+        <v>9209</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28">
+        <v>9214</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30">
+        <v>9291</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31">
+        <v>9292</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>5534</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46">
+        <v>5023</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49">
+        <v>5030</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50">
+        <v>201</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51">
+        <v>202</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52">
+        <v>5091</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53">
+        <v>5090</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
